--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B655E3-DDF5-4A6B-9571-ABB2395D12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548DB45-A6F2-4482-865E-AD54A36105BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Bule Casa, produzido em fibra de vidro</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_JOCKEY CLUB.xlsx</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -523,7 +526,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -569,7 +572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -595,7 +598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -621,7 +624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -647,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -671,6 +674,9 @@
       </c>
       <c r="J6" t="s">
         <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548DB45-A6F2-4482-865E-AD54A36105BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4066A9ED-70C8-424D-910E-2F5BE5531109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_JOCKEY CLUB.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizangela Wesolowski </t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -676,6 +679,38 @@
         <v>31</v>
       </c>
       <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1888</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44928</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
     </row>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4066A9ED-70C8-424D-910E-2F5BE5531109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D00639-5827-49F3-A5DF-A3468422C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t>asdasdsad</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E8DDA-FA56-4E74-A88C-DE78AC1EF53C}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,6 +1072,24 @@
         <v>57532.82</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>C9*H9</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D00639-5827-49F3-A5DF-A3468422C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3980DA-F6AE-45BA-86B4-04F00C201DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3980DA-F6AE-45BA-86B4-04F00C201DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBDFEA-D6D6-45F8-9F38-8E68E15EF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,7 +942,7 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -966,8 +966,8 @@
         <v>40</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>4707.4669999999996</v>
+        <f>C5*H5</f>
+        <v>14122.400999999998</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBDFEA-D6D6-45F8-9F38-8E68E15EF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA9C3A-2F00-4476-A21E-93F558921241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -190,7 +190,25 @@
     <t xml:space="preserve">Elizangela Wesolowski </t>
   </si>
   <si>
-    <t>asdasdsad</t>
+    <t>AD10</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>Rena aramada, produzido em alumínio e pintura, com detalhes em LED. Branco</t>
+  </si>
+  <si>
+    <t>Rena aramada, medindo aproximadamente 1,40m de altura x 0,50m de largura x 1,30m de comprimento, produzido em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com 100 LEDs brancos, medindo aproximadamente 8,5m de comprimento, fio elétrico branco 2 x 0,5mm², consumo médio de 7W de potência, na tensão de 220v.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena do papai noel aramada, tridimensional, produzida com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: 1,35m de altura x 0,45m de largura x 1,25m de comprimento / máximo: 1,45m de altura x 0,55m de largura x 1,35 de profundidade. </t>
   </si>
 </sst>
 </file>
@@ -514,7 +532,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -715,6 +733,35 @@
       </c>
       <c r="K7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1888</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44959</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +884,7 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -867,8 +914,8 @@
         <v>25</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>4247.1049999999996</v>
+        <f>C2*H2</f>
+        <v>25482.629999999997</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -894,7 +941,7 @@
         <v>33</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3:M7" si="0">C3*H3</f>
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1091,7 @@
         <v>46</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1069,7 +1116,7 @@
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>57532.82</v>
+        <v>115065.64</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1079,11 +1126,35 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>70</v>
+      </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>4549.9895999999999</v>
       </c>
       <c r="I9">
         <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
       </c>
       <c r="M9">
         <f>C9*H9</f>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA9C3A-2F00-4476-A21E-93F558921241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E9EF9-5230-4EED-9127-B919ECBC6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -112,112 +112,22 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Os Três Reis Magos aramados medindo cada um aproximadamente 1,70 de altura x 0,65m de largura e 0,70m de comprimento, produzidos em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com LEDs brancos, fio elétrico branco 2 x 0,5mm²,na tensão de 220v. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Três Reis Magos aramados, composto por Gaspar, Baltazar e Melchior, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: 1,65m de altura x 0,60m de largura x 0,65m de comprimento / máximo: 1,75m de altura x 0,70m de largura x 0,75 de profundidade. </t>
-  </si>
-  <si>
-    <t>PA01M</t>
-  </si>
-  <si>
-    <t>3,75</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Coelho espiando produzido em estrutura metálica e corda luminosa</t>
-  </si>
-  <si>
     <t>Locação</t>
   </si>
   <si>
-    <t>LE36RGB</t>
-  </si>
-  <si>
-    <t>Refletor de LED 100W de potência 9500 lumens. Cor Rosa</t>
-  </si>
-  <si>
     <t>Venda</t>
   </si>
   <si>
-    <t>PMOBP_RS</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>Poste com bandeirolas em fibra de vidro com pintura automotiva rosa</t>
-  </si>
-  <si>
-    <t>PMOBP_VD</t>
-  </si>
-  <si>
-    <t>Poste com bandeirolas em fibra de vidro com pintura automotiva verde.</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>1,60</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>0,10</t>
-  </si>
-  <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>PFG06</t>
-  </si>
-  <si>
-    <t>Bule Casa, produzido em fibra de vidro</t>
-  </si>
-  <si>
     <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_JOCKEY CLUB.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Elizangela Wesolowski </t>
-  </si>
-  <si>
-    <t>AD10</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>Rena aramada, produzido em alumínio e pintura, com detalhes em LED. Branco</t>
-  </si>
-  <si>
-    <t>Rena aramada, medindo aproximadamente 1,40m de altura x 0,50m de largura x 1,30m de comprimento, produzido em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com 100 LEDs brancos, medindo aproximadamente 8,5m de comprimento, fio elétrico branco 2 x 0,5mm², consumo médio de 7W de potência, na tensão de 220v.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rena do papai noel aramada, tridimensional, produzida com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: 1,35m de altura x 0,45m de largura x 1,25m de comprimento / máximo: 1,45m de altura x 0,55m de largura x 1,35 de profundidade. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0,000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,10 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -645,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -671,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -697,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -726,13 +635,13 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -758,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -835,13 +744,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E8DDA-FA56-4E74-A88C-DE78AC1EF53C}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -874,291 +783,6 @@
       </c>
       <c r="K1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>576</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4247.1049999999996</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2">
-        <f>C2*H2</f>
-        <v>25482.629999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M7" si="0">C3*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4707.4669999999996</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>4707.4669999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4707.4669999999996</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <f>C5*H5</f>
-        <v>14122.400999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1371.75</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>2743.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2394.75</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>4789.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>57532.82</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8">
-        <f>C8*H8</f>
-        <v>115065.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9">
-        <v>70</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4549.9895999999999</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9">
-        <f>C9*H9</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E9EF9-5230-4EED-9127-B919ECBC6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A925BB1-36A1-467B-A7CD-1778FF513632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -122,12 +122,33 @@
   </si>
   <si>
     <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t>AD03</t>
+  </si>
+  <si>
+    <t>0,63</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>Pastor e Ovelha, produzido em alumínio e pintura branca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastor e ovelha aramados, medindo aproximadamente o Pastor 1,85m de altura x 0,65m de largura x 0,75m de comprimento e a ovelha  0,45m  de altura x 0,22m de largura e 0,75m de comprimento, produzidos em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com LEDs brancos, fio elétrico branco 2 x 0,5mm², na tensão de 220v. </t>
+  </si>
+  <si>
+    <t>Pastor e ovelha aramados, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: Pastor 1,80 de altura x 0,60m de largura x 0,70m de comprimento e Ovelha  0,59m de altura x 0,17m de largura x 0,70m de comprimento  / máximo: Pastor 1,90m de altura x 0,70m de largura x 0,80m de comprimento e  Ovelha  0,49m de altura x 0,27m de largura x 0,80m de comprimento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0,000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,9 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,13 +766,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E8DDA-FA56-4E74-A88C-DE78AC1EF53C}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -783,6 +805,48 @@
       </c>
       <c r="K1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2212.0488</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>11060.244000000001</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A925BB1-36A1-467B-A7CD-1778FF513632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C396A-763D-4C89-8D30-5DB27069BA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="Feliz Páscoa" sheetId="7" r:id="rId5"/>
+    <sheet name="Entrada Principal" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,9 +76,6 @@
     <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx</t>
   </si>
   <si>
-    <t>Feliz Páscoa</t>
-  </si>
-  <si>
     <t>Seq.</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Pastor e ovelha aramados, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: Pastor 1,80 de altura x 0,60m de largura x 0,70m de comprimento e Ovelha  0,59m de altura x 0,17m de largura x 0,70m de comprimento  / máximo: Pastor 1,90m de altura x 0,70m de largura x 0,80m de comprimento e  Ovelha  0,49m de altura x 0,27m de largura x 0,80m de comprimento.</t>
+  </si>
+  <si>
+    <t>Entrada Principal</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -628,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -657,13 +657,13 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -689,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -733,8 +733,8 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -768,43 +768,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E8DDA-FA56-4E74-A88C-DE78AC1EF53C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -821,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>

--- a/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C396A-763D-4C89-8D30-5DB27069BA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81120E53-C8D7-4AC0-9C04-F07D5E8EDE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -121,25 +121,28 @@
     <t xml:space="preserve">Elizangela Wesolowski </t>
   </si>
   <si>
-    <t>AD03</t>
-  </si>
-  <si>
-    <t>0,63</t>
+    <t>Entrada Principal</t>
+  </si>
+  <si>
+    <t>AD04</t>
+  </si>
+  <si>
+    <t>1,91</t>
   </si>
   <si>
     <t>0,7</t>
   </si>
   <si>
-    <t>Pastor e Ovelha, produzido em alumínio e pintura branca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastor e ovelha aramados, medindo aproximadamente o Pastor 1,85m de altura x 0,65m de largura x 0,75m de comprimento e a ovelha  0,45m  de altura x 0,22m de largura e 0,75m de comprimento, produzidos em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com LEDs brancos, fio elétrico branco 2 x 0,5mm², na tensão de 220v. </t>
-  </si>
-  <si>
-    <t>Pastor e ovelha aramados, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: Pastor 1,80 de altura x 0,60m de largura x 0,70m de comprimento e Ovelha  0,59m de altura x 0,17m de largura x 0,70m de comprimento  / máximo: Pastor 1,90m de altura x 0,70m de largura x 0,80m de comprimento e  Ovelha  0,49m de altura x 0,27m de largura x 0,80m de comprimento.</t>
-  </si>
-  <si>
-    <t>Entrada Principal</t>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>3 Reis Magos, produzido em alumínio e pintura branca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Três Reis Magos aramados medindo cada um aproximadamente 1,70 de altura x 0,65m de largura e 0,70m de comprimento, produzidos em alumínio, com pintura em esmalte sintético automotivo na cor branca e verniz automotivo brilhante com detalhes de conjuntos com LEDs brancos, fio elétrico branco 2 x 0,5mm²,na tensão de 220v. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Três Reis Magos aramados, composto por Gaspar, Baltazar e Melchior, figuras tridimensionais, produzidas com arames de alumíno, pintura em epóxi na cor branca, aplicação de lâmpadas de LED brancas, com fio branco ou morno (medida do fio: 2x0,5mm²). Medidas das figuras: mínimo: 1,65m de altura x 0,60m de largura x 0,65m de comprimento / máximo: 1,75m de altura x 0,70m de largura x 0,75 de profundidade. </t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E8DDA-FA56-4E74-A88C-DE78AC1EF53C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -812,41 +815,38 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2">
-        <v>2212.0488</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>6963.2784000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
-        <v>11060.244000000001</v>
+        <v>34816.392</v>
       </c>
     </row>
   </sheetData>
